--- a/Testcases/ProfilePage_TestCases_Trupti.xlsx
+++ b/Testcases/ProfilePage_TestCases_Trupti.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdvanceTask\advancedtask\Testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFF4CD-B8C7-40B0-8585-04422920531A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39FDD5-FEE1-447D-8CF5-DCE812EEF345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8B82EA1-FEEE-4A07-8806-55550D771B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ProfilePage" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases ProfilePage" sheetId="2" r:id="rId2"/>
+    <sheet name="Testcases ProfilePage" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="274">
   <si>
     <t>Verify user is able to change password with valid details</t>
   </si>
@@ -799,9 +799,6 @@
     </r>
   </si>
   <si>
-    <t>User should be receiving error saying"Please enter different password"</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -849,6 +846,9 @@
     </r>
   </si>
   <si>
+    <t>User should be able to save new password</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -867,11 +867,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter New Password and Confirm Password as a speces</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be able to save new password</t>
+      <t xml:space="preserve"> Enter New Password and Confirm Password as "asdf@134"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Please enter valid Password "</t>
   </si>
   <si>
     <r>
@@ -892,11 +892,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter New Password and Confirm Password as "asdf@134"</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be receiving error saying"Please enter valid Password "</t>
+      <t xml:space="preserve"> Enter New Password and Confirm Password with speces</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Password does not match"</t>
   </si>
   <si>
     <r>
@@ -917,11 +917,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter New Password and Confirm Password with speces</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be receiving error saying"Password does not match"</t>
+      <t xml:space="preserve"> Enter New Password and Confirm Password different Cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Uppercases and lower cases)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -942,17 +948,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter New Password and Confirm Password different Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Uppercases and lower cases)</t>
-    </r>
+      <t xml:space="preserve"> Enter New Password and Confirm Password different</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Please enter correct Current Password"</t>
   </si>
   <si>
     <r>
@@ -973,11 +973,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter New Password and Confirm Password different</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be receiving error saying"Please enter correct Current Password"</t>
+      <t xml:space="preserve"> Enter Current Password Incorrect</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Please fill all the details before submitting"</t>
   </si>
   <si>
     <r>
@@ -998,11 +998,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter Current Password Incorrect</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be receiving error saying"Please fill all the details before submitting"</t>
+      <t xml:space="preserve"> Enter details except Confirm Password</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1023,7 +1020,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter details except Confirm Password</t>
+      <t xml:space="preserve"> Enter details except New Password</t>
     </r>
   </si>
   <si>
@@ -1045,8 +1042,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter details except New Password</t>
-    </r>
+      <t xml:space="preserve"> Enter details except Current Password</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to able to close drop Down without changing "$ Earn Target"</t>
+  </si>
+  <si>
+    <t>User Should be able to edit "$ Earn Target"</t>
+  </si>
+  <si>
+    <t>User Should be able to select "$ Earn Target' to 'More than $1000 per month"</t>
+  </si>
+  <si>
+    <t>User Should be able to select "Between $500 and $1000 per month"</t>
+  </si>
+  <si>
+    <t>User Should be able to select "'Less than $500 per month"</t>
+  </si>
+  <si>
+    <t>User Should be able to able to close drop Down without changing Hours</t>
+  </si>
+  <si>
+    <t>User Should be able to edit "Hours"</t>
   </si>
   <si>
     <r>
@@ -1057,7 +1075,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step 6:</t>
     </r>
     <r>
       <rPr>
@@ -1067,11 +1085,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Enter details except Current Password</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to able to close drop Down without changing "$ Earn Target"</t>
+      <t xml:space="preserve"> Click on edit  "Hours"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to able to close drop Down without changing Availability</t>
+  </si>
+  <si>
+    <t>User Should be able to edit "Availability"</t>
+  </si>
+  <si>
+    <t>User Should be able to select "Part Time"</t>
+  </si>
+  <si>
+    <t>User Should be able to select "Full Time"</t>
+  </si>
+  <si>
+    <t>User Should be able to able to close drop Down without changing location</t>
+  </si>
+  <si>
+    <t>User Should be able to edit "Location"</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Test Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Test Case Name</t>
+  </si>
+  <si>
+    <t>User should be able to Signout</t>
   </si>
   <si>
     <r>
@@ -1082,7 +1136,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step9:</t>
     </r>
     <r>
       <rPr>
@@ -1091,11 +1145,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Click on "Cancel" Button without Editing</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to edit "$ Earn Target"</t>
+      <t xml:space="preserve"> Click on SignOut Button</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1106,21 +1157,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 6:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on edit  "$ Earn Target"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to click on$ Earn Target</t>
+      <t xml:space="preserve">Step10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click on SignIn Button</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1131,21 +1178,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 5:</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Step11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Enter valid Email and Old Password</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on "$ Earn Target"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "$ Earn Target' to 'More than $1000 per month"</t>
+      <t>Step 12:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Login" Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step13:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter valid Email and new Password</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Login using new password</t>
   </si>
   <si>
     <r>
@@ -1156,21 +1248,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Select drop down "$ Earn Target' to 'More than $1000 per month"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "Between $500 and $1000 per month"</t>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Hi User FirstName"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1181,21 +1269,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Select drop down "Between $500 and $1000 per month"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "'Less than $500 per month"</t>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Click on "Hi User FirstName"</t>
+    </r>
+  </si>
+  <si>
+    <t>Actual Result</t>
   </si>
   <si>
     <r>
@@ -1206,7 +1293,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step 5:</t>
     </r>
     <r>
       <rPr>
@@ -1216,14 +1303,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "'Less than $500 per month"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to able to close drop Down without changing Hours</t>
-  </si>
-  <si>
-    <t>User Should be able to edit "Hours"</t>
+      <t xml:space="preserve"> Click on edit  "Location"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1234,21 +1315,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 6:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on edit  "Hours"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to click on Hours</t>
+      <t>Step6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Cancel" Button without Editing</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1269,11 +1346,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on "Hours"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "As Needed"</t>
+      <t xml:space="preserve"> Click on edit  "Availability"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1284,7 +1358,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1294,11 +1368,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "As Needed"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "More than 30Hours"</t>
+      <t xml:space="preserve"> Select drop down "Full Time"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1309,7 +1380,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1319,11 +1390,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "More than 30Hours"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "Less than 30Hours"</t>
+      <t xml:space="preserve"> Select drop down "Part Time"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1334,7 +1402,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step 5:</t>
     </r>
     <r>
       <rPr>
@@ -1344,14 +1412,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "Less than 30Hours"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to able to close drop Down without changing Availability</t>
-  </si>
-  <si>
-    <t>User Should be able to edit "Availability"</t>
+      <t xml:space="preserve"> Click on edit  "Hours"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1362,7 +1424,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 6:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1372,11 +1434,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on edit  "Availability"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to click on Availability</t>
+      <t xml:space="preserve"> Select drop down "Less than 30Hours a week"</t>
+    </r>
+  </si>
+  <si>
+    <t>The Hours is updated to "Less than 30 Hours a week"</t>
   </si>
   <si>
     <r>
@@ -1387,7 +1449,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 5:</t>
+      <t>Step7:</t>
     </r>
     <r>
       <rPr>
@@ -1397,11 +1459,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on "Availability"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "Part Time"</t>
+      <t xml:space="preserve"> Select drop down "More than 30Hours a week"</t>
+    </r>
+  </si>
+  <si>
+    <t>The Hours is updated to "More than 30 Hours a week"</t>
   </si>
   <si>
     <r>
@@ -1412,7 +1474,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1422,11 +1484,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "Part Time"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to select "Full Time"</t>
+      <t xml:space="preserve"> Select drop down "As Needed"</t>
+    </r>
+  </si>
+  <si>
+    <t>The Hours is updated to "As needed"</t>
   </si>
   <si>
     <r>
@@ -1437,7 +1499,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step7:</t>
+      <t>Step 5:</t>
     </r>
     <r>
       <rPr>
@@ -1447,14 +1509,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Select drop down "Full Time"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to able to close drop Down without changing location</t>
-  </si>
-  <si>
-    <t>User Should be able to edit "Location"</t>
+      <t xml:space="preserve"> Click on edit  "$ Earn Target"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1465,7 +1521,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 6:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1475,11 +1531,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on edit  "Location"</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to click on Location</t>
+      <t xml:space="preserve"> Select drop down "'Less than $500 per month"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1490,7 +1543,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step 5:</t>
+      <t>Step6:</t>
     </r>
     <r>
       <rPr>
@@ -1500,32 +1553,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Click on "Location"</t>
-    </r>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Defect ID</t>
-  </si>
-  <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Test Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Test Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Test Case Name</t>
-  </si>
-  <si>
-    <t>User should be able to Signout</t>
+      <t xml:space="preserve"> Select drop down "Between $500 and $1000 per month"</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1536,150 +1565,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Step9:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Click on SignOut Button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Step10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click on SignIn Button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Step11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Enter valid Email and Old Password</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>Step6:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Step 12:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on "Login" Button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step13:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter valid Email and new Password</t>
-    </r>
-  </si>
-  <si>
-    <t>User Should be able to Login using new password</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Step 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Click on "Hi User FirstName"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Step 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Click on "Hi User FirstName"</t>
-    </r>
+      <t xml:space="preserve"> Select drop down "$ Earn Target' to 'More than $1000 per month"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Error while Updating Password Details"</t>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Passwords doesnot match"</t>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Passwords required atleast 6 characters"</t>
+  </si>
+  <si>
+    <t>User should be receiving error saying"Current Password and New password shoul not be same"</t>
+  </si>
+  <si>
+    <t>Test Status</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1845,6 +1757,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3128,11 +3049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9A4F54-C156-461D-9D03-1F0EB923A81B}">
-  <dimension ref="A1:H234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9BABFA-8CE9-4DD3-A46A-3893F7015450}">
+  <dimension ref="A1:I212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B207" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218:D222"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,39 +3061,41 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" customWidth="1"/>
     <col min="3" max="3" width="70.21875" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.5546875" customWidth="1"/>
+    <col min="5" max="7" width="27.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>185</v>
       </c>
@@ -3185,8 +3108,10 @@
       <c r="D2" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="11" t="s">
@@ -3195,8 +3120,10 @@
       <c r="D3" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="9" t="s">
@@ -3206,7 +3133,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
@@ -3215,480 +3142,553 @@
       <c r="D5" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="9" t="s">
-        <v>200</v>
+      <c r="C12" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>178</v>
       </c>
+      <c r="C15" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="9" t="s">
-        <v>200</v>
+      <c r="C20" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="C23" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
-      <c r="C31" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="C35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="C37" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="8" t="s">
-        <v>226</v>
+      <c r="C40" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
-      <c r="C45" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
-      <c r="C46" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
-      <c r="C47" s="8" t="s">
-        <v>239</v>
+      <c r="C47" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
-      <c r="C52" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
-      <c r="C54" s="8" t="s">
-        <v>241</v>
+      <c r="C54" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="8" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>206</v>
@@ -3696,8 +3696,10 @@
       <c r="D58" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="11" t="s">
@@ -3706,8 +3708,10 @@
       <c r="D59" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="9" t="s">
@@ -3717,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="9" t="s">
@@ -3726,1605 +3730,1640 @@
       <c r="D61" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="8" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="8" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="9" t="s">
-        <v>200</v>
+      <c r="C69" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="8" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>160</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="9" t="s">
-        <v>200</v>
+      <c r="C77" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>158</v>
-      </c>
+      <c r="C80" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C83" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C88" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
+      <c r="C91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="C93" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C94" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
-      <c r="C96" s="8" t="s">
-        <v>232</v>
+      <c r="C96" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C100" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
-      <c r="C103" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C107" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
-      <c r="C108" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
-      <c r="C109" s="9" t="s">
-        <v>200</v>
+      <c r="C109" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="H109" s="19"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
-      <c r="C112" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C112" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
-      <c r="C113" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C113" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
-      <c r="C116" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
-      <c r="C117" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C117" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
-      <c r="C118" s="9" t="s">
-        <v>200</v>
+      <c r="C118" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
-      <c r="C121" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C121" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
-      <c r="C122" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C122" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
-      <c r="C126" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D126" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
-      <c r="C127" s="9" t="s">
-        <v>200</v>
+      <c r="C127" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
-      <c r="C130" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C130" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
-      <c r="C131" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C131" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
-      <c r="C134" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C134" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
-      <c r="C135" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
-      <c r="C136" s="9" t="s">
-        <v>200</v>
+      <c r="C136" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
-      <c r="C139" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C139" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
-      <c r="C140" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C140" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C143" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
-      <c r="C144" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
-      <c r="C145" s="9" t="s">
-        <v>200</v>
+      <c r="C145" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
-      <c r="C148" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C148" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
-      <c r="C149" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C149" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
-      <c r="C152" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C152" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
-      <c r="C153" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C153" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="H153" s="19"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
-      <c r="C154" s="9" t="s">
-        <v>200</v>
+      <c r="C154" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
-      <c r="C157" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C157" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
-      <c r="C158" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C158" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C161" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
-      <c r="C162" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="C162" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
-      <c r="C163" s="9" t="s">
-        <v>200</v>
+      <c r="C163" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C164" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C165" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C166" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D166" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D166" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="8" t="s">
-        <v>193</v>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C167" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C168" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C169" s="9"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
-      <c r="C171" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C171" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="D172" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
-      <c r="C173" s="8" t="s">
-        <v>276</v>
+      <c r="C173" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="8" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C177" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="D177" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C178" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D178" s="10" t="s">
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D180" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C179" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D181" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C180" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C181" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C182" s="9"/>
-      <c r="D182" s="8"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
-      <c r="C184" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C184" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
-      <c r="C185" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="C185" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
-      <c r="C186" s="9" t="s">
-        <v>200</v>
+      <c r="C186" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="H186" s="19"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
-      <c r="C189" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C189" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
-      <c r="C190" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C190" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="18"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C193" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
-      <c r="C194" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C194" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
-      <c r="C195" s="9" t="s">
-        <v>200</v>
+      <c r="C195" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C196" s="8" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
+        <v>243</v>
+      </c>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C197" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
+        <v>245</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C198" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D198" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D198" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="8" t="s">
-        <v>193</v>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C199" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="18"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D203" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="18"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="18"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="18"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="18"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D207" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="18"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B210" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D210" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="18"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D212" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="18"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C218" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C219" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C220" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D220" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C221" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C222" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C227" s="9"/>
-      <c r="D227" s="12"/>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C228" s="11"/>
-      <c r="D228" s="10"/>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C229" s="9"/>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C230" s="9"/>
-      <c r="D230" s="8"/>
-    </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-    </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-    </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-    </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C200" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C205" s="9"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C206" s="11"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C207" s="9"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C208" s="9"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="B66:B72"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="B98:B104"/>
-    <mergeCell ref="A98:A104"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B133:B140"/>
-    <mergeCell ref="A133:A140"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="A142:A149"/>
-    <mergeCell ref="B210:B217"/>
-    <mergeCell ref="A210:A217"/>
-    <mergeCell ref="B183:B190"/>
-    <mergeCell ref="A183:A190"/>
-    <mergeCell ref="B169:B176"/>
-    <mergeCell ref="A169:A176"/>
-    <mergeCell ref="B192:B199"/>
-    <mergeCell ref="A192:A199"/>
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="A201:A208"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="A151:A158"/>
-    <mergeCell ref="B160:B167"/>
-    <mergeCell ref="A160:A167"/>
+  <mergeCells count="48">
+    <mergeCell ref="A170:A177"/>
+    <mergeCell ref="B170:B177"/>
+    <mergeCell ref="A179:A186"/>
+    <mergeCell ref="B179:B186"/>
+    <mergeCell ref="A188:A195"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="A138:A145"/>
+    <mergeCell ref="B138:B145"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="B129:B136"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>